--- a/7.单总线CPU/单总线实验资料包(愚人节版)/4.判别测试逻辑自动生成表达式(2020-4-1).xlsx
+++ b/7.单总线CPU/单总线实验资料包(愚人节版)/4.判别测试逻辑自动生成表达式(2020-4-1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\3 大三\计算机组成原理\Logisim\hustzc\7.单总线CPU\单总线实验资料包(愚人节版)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6FFCC9-D190-47A9-9108-71941D00FD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E9B0A-FDF3-42A1-B112-15ED5AF2114A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,6 +749,9 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,9 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1204,34 +1204,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -1344,7 +1344,7 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="39"/>
+      <c r="Y3" s="28"/>
     </row>
     <row r="4" spans="1:25" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
@@ -1383,7 +1383,7 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="39"/>
+      <c r="Y4" s="28"/>
     </row>
     <row r="5" spans="1:25" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -1392,9 +1392,7 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="19">
         <v>1</v>
       </c>
@@ -1519,9 +1517,11 @@
       <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
       <c r="E8" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -1531,13 +1531,13 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="23">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24">
         <v>0</v>
       </c>
-      <c r="N8" s="24">
-        <v>1</v>
-      </c>
       <c r="O8" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
@@ -1559,9 +1559,11 @@
       <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
       <c r="E9" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -1571,13 +1573,13 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="24">
         <v>1</v>
       </c>
-      <c r="N9" s="24">
-        <v>0</v>
-      </c>
       <c r="O9" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -1590,11 +1592,21 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="21">
+        <v>0</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -1602,9 +1614,15 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
@@ -1620,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="24">
-        <v>0</v>
-      </c>
       <c r="D11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -1639,13 +1657,13 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
         <v>1</v>
       </c>
-      <c r="N11" s="24">
-        <v>0</v>
-      </c>
       <c r="O11" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
@@ -1662,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
         <v>0</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -1700,7 +1718,9 @@
       <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="24">
+        <v>0</v>
+      </c>
       <c r="B13" s="24">
         <v>1</v>
       </c>
@@ -1708,9 +1728,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
         <v>1</v>
       </c>
-      <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
@@ -1719,10 +1741,10 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="23">
+        <v>1</v>
+      </c>
+      <c r="N13" s="24">
         <v>0</v>
-      </c>
-      <c r="N13" s="24">
-        <v>1</v>
       </c>
       <c r="O13" s="24">
         <v>0</v>
@@ -1738,21 +1760,11 @@
       <c r="X13" s="24"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>0</v>
-      </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -1760,15 +1772,9 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="22">
-        <v>1</v>
-      </c>
-      <c r="N14" s="21">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -2222,42 +2228,42 @@
       <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" ht="16.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -2643,7 +2649,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>IF(组合逻辑真值表!C5&lt;&gt;"",IF(组合逻辑真值表!C5=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C5=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
-        <v>P2&amp;</v>
+        <v/>
       </c>
       <c r="D4" s="16" t="str">
         <f>IF(组合逻辑真值表!D5&lt;&gt;"",IF(组合逻辑真值表!D5=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D5=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
@@ -2683,7 +2689,7 @@
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;P1&amp;P2&amp;equal</v>
+        <v>~P0&amp;P1&amp;equal</v>
       </c>
       <c r="N4" s="4" t="str">
         <f>IF(组合逻辑真值表!M5=1,$M4&amp;"+","")</f>
@@ -2691,7 +2697,7 @@
       </c>
       <c r="O4" s="4" t="str">
         <f>IF(组合逻辑真值表!N5=1,$M4&amp;"+","")</f>
-        <v>~P0&amp;P1&amp;P2&amp;equal+</v>
+        <v>~P0&amp;P1&amp;equal+</v>
       </c>
       <c r="P4" s="4" t="str">
         <f>IF(组合逻辑真值表!O5=1,$M4&amp;"+","")</f>
@@ -2953,11 +2959,11 @@
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(组合逻辑真值表!D8&lt;&gt;"",IF(组合逻辑真值表!D8=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D8=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~equal&amp;</v>
       </c>
       <c r="E7" s="16" t="str">
         <f>IF(组合逻辑真值表!E8&lt;&gt;"",IF(组合逻辑真值表!E8=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E8=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
-        <v>IntR&amp;</v>
+        <v>~IntR&amp;</v>
       </c>
       <c r="F7" s="16" t="str">
         <f>IF(组合逻辑真值表!F8&lt;&gt;"",IF(组合逻辑真值表!F8=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F8=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
@@ -2989,19 +2995,19 @@
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;~P1&amp;P2&amp;IntR</v>
+        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR</v>
       </c>
       <c r="N7" s="4" t="str">
         <f>IF(组合逻辑真值表!M8=1,$M7&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+</v>
       </c>
       <c r="O7" s="4" t="str">
         <f>IF(组合逻辑真值表!N8=1,$M7&amp;"+","")</f>
-        <v>~P0&amp;~P1&amp;P2&amp;IntR+</v>
+        <v/>
       </c>
       <c r="P7" s="4" t="str">
         <f>IF(组合逻辑真值表!O8=1,$M7&amp;"+","")</f>
-        <v>~P0&amp;~P1&amp;P2&amp;IntR+</v>
+        <v/>
       </c>
       <c r="Q7" s="4" t="str">
         <f>IF(组合逻辑真值表!P8=1,$M7&amp;"+","")</f>
@@ -3055,11 +3061,11 @@
       </c>
       <c r="D8" s="16" t="str">
         <f>IF(组合逻辑真值表!D9&lt;&gt;"",IF(组合逻辑真值表!D9=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D9=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~equal&amp;</v>
       </c>
       <c r="E8" s="16" t="str">
         <f>IF(组合逻辑真值表!E9&lt;&gt;"",IF(组合逻辑真值表!E9=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E9=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
-        <v>~IntR&amp;</v>
+        <v>IntR&amp;</v>
       </c>
       <c r="F8" s="16" t="str">
         <f>IF(组合逻辑真值表!F9&lt;&gt;"",IF(组合逻辑真值表!F9=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F9=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
@@ -3091,19 +3097,19 @@
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;~P1&amp;P2&amp;~IntR</v>
+        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR</v>
       </c>
       <c r="N8" s="4" t="str">
         <f>IF(组合逻辑真值表!M9=1,$M8&amp;"+","")</f>
-        <v>~P0&amp;~P1&amp;P2&amp;~IntR+</v>
+        <v/>
       </c>
       <c r="O8" s="4" t="str">
         <f>IF(组合逻辑真值表!N9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+</v>
       </c>
       <c r="P8" s="4" t="str">
         <f>IF(组合逻辑真值表!O9=1,$M8&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+</v>
       </c>
       <c r="Q8" s="4" t="str">
         <f>IF(组合逻辑真值表!P9=1,$M8&amp;"+","")</f>
@@ -3145,23 +3151,23 @@
     <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="str">
         <f>IF(组合逻辑真值表!A10&lt;&gt;"",IF(组合逻辑真值表!A10=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A10=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~P0&amp;</v>
       </c>
       <c r="B9" s="16" t="str">
         <f>IF(组合逻辑真值表!B10&lt;&gt;"",IF(组合逻辑真值表!B10=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B10=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~P1&amp;</v>
       </c>
       <c r="C9" s="16" t="str">
         <f>IF(组合逻辑真值表!C10&lt;&gt;"",IF(组合逻辑真值表!C10=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C10=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>P2&amp;</v>
       </c>
       <c r="D9" s="16" t="str">
         <f>IF(组合逻辑真值表!D10&lt;&gt;"",IF(组合逻辑真值表!D10=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D10=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>equal&amp;</v>
       </c>
       <c r="E9" s="16" t="str">
         <f>IF(组合逻辑真值表!E10&lt;&gt;"",IF(组合逻辑真值表!E10=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E10=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~IntR&amp;</v>
       </c>
       <c r="F9" s="16" t="str">
         <f>IF(组合逻辑真值表!F10&lt;&gt;"",IF(组合逻辑真值表!F10=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F10=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
@@ -3193,11 +3199,11 @@
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;equal&amp;~IntR</v>
       </c>
       <c r="N9" s="4" t="str">
         <f>IF(组合逻辑真值表!M10=1,$M9&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;equal&amp;~IntR+</v>
       </c>
       <c r="O9" s="4" t="str">
         <f>IF(组合逻辑真值表!N10=1,$M9&amp;"+","")</f>
@@ -3251,15 +3257,15 @@
       </c>
       <c r="B10" s="16" t="str">
         <f>IF(组合逻辑真值表!B11&lt;&gt;"",IF(组合逻辑真值表!B11=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B11=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
-        <v>P1&amp;</v>
+        <v>~P1&amp;</v>
       </c>
       <c r="C10" s="16" t="str">
         <f>IF(组合逻辑真值表!C11&lt;&gt;"",IF(组合逻辑真值表!C11=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C11=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
-        <v>~P2&amp;</v>
+        <v>P2&amp;</v>
       </c>
       <c r="D10" s="16" t="str">
         <f>IF(组合逻辑真值表!D11&lt;&gt;"",IF(组合逻辑真值表!D11=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D11=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v>~equal&amp;</v>
+        <v>equal&amp;</v>
       </c>
       <c r="E10" s="16" t="str">
         <f>IF(组合逻辑真值表!E11&lt;&gt;"",IF(组合逻辑真值表!E11=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E11=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
@@ -3295,19 +3301,19 @@
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR</v>
+        <v>~P0&amp;~P1&amp;P2&amp;equal&amp;IntR</v>
       </c>
       <c r="N10" s="4" t="str">
         <f>IF(组合逻辑真值表!M11=1,$M10&amp;"+","")</f>
-        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR+</v>
+        <v/>
       </c>
       <c r="O10" s="4" t="str">
         <f>IF(组合逻辑真值表!N11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;equal&amp;IntR+</v>
       </c>
       <c r="P10" s="4" t="str">
         <f>IF(组合逻辑真值表!O11=1,$M10&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;~P1&amp;P2&amp;equal&amp;IntR+</v>
       </c>
       <c r="Q10" s="4" t="str">
         <f>IF(组合逻辑真值表!P11=1,$M10&amp;"+","")</f>
@@ -3353,11 +3359,11 @@
       </c>
       <c r="B11" s="16" t="str">
         <f>IF(组合逻辑真值表!B12&lt;&gt;"",IF(组合逻辑真值表!B12=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B12=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
-        <v>~P1&amp;</v>
+        <v>P1&amp;</v>
       </c>
       <c r="C11" s="16" t="str">
         <f>IF(组合逻辑真值表!C12&lt;&gt;"",IF(组合逻辑真值表!C12=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C12=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
-        <v>P2&amp;</v>
+        <v>~P2&amp;</v>
       </c>
       <c r="D11" s="16" t="str">
         <f>IF(组合逻辑真值表!D12&lt;&gt;"",IF(组合逻辑真值表!D12=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D12=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
@@ -3397,11 +3403,11 @@
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR</v>
+        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR</v>
       </c>
       <c r="N11" s="4" t="str">
         <f>IF(组合逻辑真值表!M12=1,$M11&amp;"+","")</f>
-        <v>~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+</v>
+        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR+</v>
       </c>
       <c r="O11" s="4" t="str">
         <f>IF(组合逻辑真值表!N12=1,$M11&amp;"+","")</f>
@@ -3451,7 +3457,7 @@
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="str">
         <f>IF(组合逻辑真值表!A13&lt;&gt;"",IF(组合逻辑真值表!A13=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A13=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~P0&amp;</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>IF(组合逻辑真值表!B13&lt;&gt;"",IF(组合逻辑真值表!B13=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B13=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
@@ -3463,11 +3469,11 @@
       </c>
       <c r="D12" s="16" t="str">
         <f>IF(组合逻辑真值表!D13&lt;&gt;"",IF(组合逻辑真值表!D13=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D13=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v>equal&amp;</v>
+        <v>~equal&amp;</v>
       </c>
       <c r="E12" s="16" t="str">
         <f>IF(组合逻辑真值表!E13&lt;&gt;"",IF(组合逻辑真值表!E13=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E13=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IntR&amp;</v>
       </c>
       <c r="F12" s="16" t="str">
         <f>IF(组合逻辑真值表!F13&lt;&gt;"",IF(组合逻辑真值表!F13=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F13=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
@@ -3499,15 +3505,15 @@
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>P1&amp;~P2&amp;equal</v>
+        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR</v>
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(组合逻辑真值表!M13=1,$M12&amp;"+","")</f>
-        <v/>
+        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR+</v>
       </c>
       <c r="O12" s="4" t="str">
         <f>IF(组合逻辑真值表!N13=1,$M12&amp;"+","")</f>
-        <v>P1&amp;~P2&amp;equal+</v>
+        <v/>
       </c>
       <c r="P12" s="4" t="str">
         <f>IF(组合逻辑真值表!O13=1,$M12&amp;"+","")</f>
@@ -3553,23 +3559,23 @@
     <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="str">
         <f>IF(组合逻辑真值表!A14&lt;&gt;"",IF(组合逻辑真值表!A14=1,组合逻辑真值表!A$2&amp;"&amp;",IF(组合逻辑真值表!A14=0,"~"&amp;组合逻辑真值表!A$2&amp;"&amp;","")),"")</f>
-        <v>~P0&amp;</v>
+        <v/>
       </c>
       <c r="B13" s="16" t="str">
         <f>IF(组合逻辑真值表!B14&lt;&gt;"",IF(组合逻辑真值表!B14=1,组合逻辑真值表!B$2&amp;"&amp;",IF(组合逻辑真值表!B14=0,"~"&amp;组合逻辑真值表!B$2&amp;"&amp;","")),"")</f>
-        <v>P1&amp;</v>
+        <v/>
       </c>
       <c r="C13" s="16" t="str">
         <f>IF(组合逻辑真值表!C14&lt;&gt;"",IF(组合逻辑真值表!C14=1,组合逻辑真值表!C$2&amp;"&amp;",IF(组合逻辑真值表!C14=0,"~"&amp;组合逻辑真值表!C$2&amp;"&amp;","")),"")</f>
-        <v>~P2&amp;</v>
+        <v/>
       </c>
       <c r="D13" s="16" t="str">
         <f>IF(组合逻辑真值表!D14&lt;&gt;"",IF(组合逻辑真值表!D14=1,组合逻辑真值表!D$2&amp;"&amp;",IF(组合逻辑真值表!D14=0,"~"&amp;组合逻辑真值表!D$2&amp;"&amp;","")),"")</f>
-        <v>~equal&amp;</v>
+        <v/>
       </c>
       <c r="E13" s="16" t="str">
         <f>IF(组合逻辑真值表!E14&lt;&gt;"",IF(组合逻辑真值表!E14=1,组合逻辑真值表!E$2&amp;"&amp;",IF(组合逻辑真值表!E14=0,"~"&amp;组合逻辑真值表!E$2&amp;"&amp;","")),"")</f>
-        <v>~IntR&amp;</v>
+        <v/>
       </c>
       <c r="F13" s="16" t="str">
         <f>IF(组合逻辑真值表!F14&lt;&gt;"",IF(组合逻辑真值表!F14=1,组合逻辑真值表!F$2&amp;"&amp;",IF(组合逻辑真值表!F14=0,"~"&amp;组合逻辑真值表!F$2&amp;"&amp;","")),"")</f>
@@ -3601,11 +3607,11 @@
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR</v>
+        <v/>
       </c>
       <c r="N13" s="4" t="str">
         <f>IF(组合逻辑真值表!M14=1,$M13&amp;"+","")</f>
-        <v>~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR+</v>
+        <v/>
       </c>
       <c r="O13" s="4" t="str">
         <f>IF(组合逻辑真值表!N14=1,$M13&amp;"+","")</f>
@@ -5255,32 +5261,32 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="5" t="str">
         <f t="shared" ref="N31:O31" si="2">IF(LEN(N32)&gt;1,LEFT(N32,LEN(N32)-1),"")</f>
-        <v>~P0&amp;P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR</v>
+        <v>~P0&amp;P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR</v>
       </c>
       <c r="O31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>~P0&amp;P1&amp;P2&amp;equal+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;IntR+P1&amp;~P2&amp;equal</v>
+        <v>~P0&amp;P1&amp;equal+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;IntR</v>
       </c>
       <c r="P31" s="5" t="str">
         <f t="shared" ref="P31" si="3">IF(LEN(P32)&gt;1,LEFT(P32,LEN(P32)-1),"")</f>
-        <v>P0&amp;~P1&amp;~P2+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;IntR</v>
+        <v>P0&amp;~P1&amp;~P2+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;IntR</v>
       </c>
       <c r="Q31" s="5" t="str">
         <f t="shared" ref="Q31" si="4">IF(LEN(Q32)&gt;1,LEFT(Q32,LEN(Q32)-1),"")</f>
@@ -5335,15 +5341,15 @@
       <c r="M32" s="6"/>
       <c r="N32" s="7" t="str">
         <f>CONCATENATE(N2,N3,N4,N5,N6,N7,N8,N9,N10,N11,N12,N13,N14,N15,N16,N17,N18,N19,N20,N21,N22,N23,N24,N25,N26,N27,N28,N29,N30)</f>
-        <v>~P0&amp;P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR+</v>
+        <v>~P0&amp;P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;~IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;~IntR+~P0&amp;P1&amp;~P2&amp;~equal&amp;IntR+</v>
       </c>
       <c r="O32" s="7" t="str">
         <f t="shared" ref="O32:Y32" si="13">CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30)</f>
-        <v>~P0&amp;P1&amp;P2&amp;equal+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;IntR+P1&amp;~P2&amp;equal+</v>
+        <v>~P0&amp;P1&amp;equal+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;IntR+</v>
       </c>
       <c r="P32" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>P0&amp;~P1&amp;~P2+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;IntR+</v>
+        <v>P0&amp;~P1&amp;~P2+~P0&amp;P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;~equal&amp;IntR+~P0&amp;~P1&amp;P2&amp;equal&amp;IntR+</v>
       </c>
       <c r="Q32" s="7" t="str">
         <f t="shared" si="13"/>
@@ -5383,33 +5389,33 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="16.2" x14ac:dyDescent="0.25">
       <c r="C36" s="17"/>
